--- a/Unity/Assets/Config/Excel/AIConfig.xlsx
+++ b/Unity/Assets/Config/Excel/AIConfig.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\mengjing\Unity\Assets\Config\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{773B4A6E-B1C7-4A36-A01B-873F5DF6BB4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" tabRatio="809" activeTab="13"/>
+    <workbookView xWindow="6930" yWindow="330" windowWidth="23250" windowHeight="16200" tabRatio="809" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AIConfig_1" sheetId="6" r:id="rId1"/>
@@ -23,24 +29,11 @@
     <sheet name="AIConfig_14" sheetId="19" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="58">
   <si>
     <t>cs</t>
   </si>
@@ -208,19 +201,22 @@
   </si>
   <si>
     <t>TuoGuan_Follow</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TuoGuan_ZhuiJi</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TuoGuan_Attack</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -248,151 +244,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -405,194 +271,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -600,264 +280,21 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="49"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="49" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -866,70 +303,26 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="49" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1187,19 +580,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I25" sqref="A1:I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="9" style="3"/>
     <col min="3" max="3" width="9.625" style="3" customWidth="1"/>
@@ -1211,7 +604,7 @@
     <col min="9" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:8">
+    <row r="1" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1223,7 +616,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" ht="16.5" spans="1:8">
+    <row r="2" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1235,7 +628,7 @@
       </c>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" ht="16.5" spans="1:8">
+    <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
@@ -1255,7 +648,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" ht="16.5" spans="1:8">
+    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2" t="s">
@@ -1277,7 +670,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="1:8">
+    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2" t="s">
@@ -1299,7 +692,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" ht="16.5" spans="3:7">
+    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C6" s="1">
         <v>101</v>
       </c>
@@ -1316,7 +709,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" ht="16.5" spans="3:7">
+    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C7" s="1">
         <v>102</v>
       </c>
@@ -1333,7 +726,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" ht="16.5" spans="3:7">
+    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C8" s="1">
         <v>103</v>
       </c>
@@ -1350,7 +743,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" ht="16.5" spans="3:7">
+    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C9" s="1">
         <v>104</v>
       </c>
@@ -1368,27 +761,26 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K20" sqref="A1:K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="6" max="6" width="23.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:11">
+    <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1403,7 +795,7 @@
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
     </row>
-    <row r="2" ht="16.5" spans="1:11">
+    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1418,7 +810,7 @@
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" ht="16.5" spans="1:11">
+    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
@@ -1441,7 +833,7 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" ht="16.5" spans="1:11">
+    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2" t="s">
@@ -1466,7 +858,7 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" ht="16.5" spans="1:11">
+    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2" t="s">
@@ -1491,7 +883,7 @@
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
     </row>
-    <row r="6" ht="16.5" spans="1:11">
+    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="1">
@@ -1514,7 +906,7 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -1527,7 +919,7 @@
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -1540,7 +932,7 @@
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -1553,7 +945,7 @@
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -1566,7 +958,7 @@
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -1579,7 +971,7 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -1592,7 +984,7 @@
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1605,7 +997,7 @@
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1618,7 +1010,7 @@
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1631,7 +1023,7 @@
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1644,7 +1036,7 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1657,7 +1049,7 @@
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1671,26 +1063,25 @@
       <c r="K18" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N19" sqref="A1:N19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="6" max="6" width="16.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:11">
+    <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1705,7 +1096,7 @@
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
     </row>
-    <row r="2" ht="16.5" spans="1:11">
+    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1720,7 +1111,7 @@
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" ht="16.5" spans="1:11">
+    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
@@ -1743,7 +1134,7 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" ht="16.5" spans="1:11">
+    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2" t="s">
@@ -1768,7 +1159,7 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" ht="16.5" spans="1:11">
+    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2" t="s">
@@ -1793,7 +1184,7 @@
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
     </row>
-    <row r="6" ht="16.5" spans="1:11">
+    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="1">
@@ -1814,7 +1205,7 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -1827,7 +1218,7 @@
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -1840,7 +1231,7 @@
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -1853,7 +1244,7 @@
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -1866,7 +1257,7 @@
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -1879,7 +1270,7 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -1892,7 +1283,7 @@
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1905,7 +1296,7 @@
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1918,7 +1309,7 @@
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1931,7 +1322,7 @@
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1944,7 +1335,7 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1957,7 +1348,7 @@
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1971,27 +1362,26 @@
       <c r="K18" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="P29" sqref="A1:P29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="6" max="6" width="20.375" customWidth="1"/>
     <col min="7" max="7" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:9">
+    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2004,7 +1394,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="3"/>
     </row>
-    <row r="2" ht="16.5" spans="1:9">
+    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -2017,7 +1407,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" ht="16.5" spans="1:9">
+    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
@@ -2038,7 +1428,7 @@
       </c>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" ht="16.5" spans="1:9">
+    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2" t="s">
@@ -2061,7 +1451,7 @@
       </c>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" ht="16.5" spans="1:9">
+    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2" t="s">
@@ -2084,7 +1474,7 @@
       </c>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" ht="16.5" spans="1:9">
+    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="1">
@@ -2105,7 +1495,7 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" ht="16.5" spans="1:9">
+    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="1">
@@ -2126,7 +1516,7 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" ht="16.5" spans="1:9">
+    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="1">
@@ -2147,7 +1537,7 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" ht="16.5" spans="1:9">
+    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="1">
@@ -2168,7 +1558,7 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -2179,7 +1569,7 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -2190,7 +1580,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -2201,7 +1591,7 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -2212,7 +1602,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -2223,7 +1613,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -2234,7 +1624,7 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -2245,7 +1635,7 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -2256,7 +1646,7 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -2267,7 +1657,7 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -2278,7 +1668,7 @@
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -2289,7 +1679,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -2300,7 +1690,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -2311,7 +1701,7 @@
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -2322,7 +1712,7 @@
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -2333,7 +1723,7 @@
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -2345,26 +1735,25 @@
       <c r="I25" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="6" max="6" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:11">
+    <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2379,7 +1768,7 @@
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
     </row>
-    <row r="2" ht="16.5" spans="1:11">
+    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -2394,7 +1783,7 @@
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" ht="16.5" spans="1:11">
+    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
@@ -2417,7 +1806,7 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" ht="16.5" spans="1:11">
+    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2" t="s">
@@ -2442,7 +1831,7 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" ht="16.5" spans="1:11">
+    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2" t="s">
@@ -2467,7 +1856,7 @@
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
     </row>
-    <row r="6" ht="16.5" spans="1:11">
+    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="1">
@@ -2488,7 +1877,7 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -2501,7 +1890,7 @@
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -2514,7 +1903,7 @@
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -2527,7 +1916,7 @@
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -2540,7 +1929,7 @@
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -2553,7 +1942,7 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -2566,7 +1955,7 @@
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -2579,7 +1968,7 @@
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -2592,7 +1981,7 @@
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -2605,7 +1994,7 @@
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -2618,7 +2007,7 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -2631,7 +2020,7 @@
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -2645,26 +2034,25 @@
       <c r="K18" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="6" max="6" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:9">
+    <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2677,7 +2065,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="3"/>
     </row>
-    <row r="2" ht="16.5" spans="1:9">
+    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -2690,7 +2078,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" ht="16.5" spans="1:9">
+    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
@@ -2711,7 +2099,7 @@
       </c>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" ht="16.5" spans="1:9">
+    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2" t="s">
@@ -2734,7 +2122,7 @@
       </c>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" ht="16.5" spans="1:9">
+    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2" t="s">
@@ -2757,115 +2145,115 @@
       </c>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" ht="16.5" spans="1:11">
+    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1">
         <v>1401</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="1">
         <v>14</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="1">
         <v>1</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="4"/>
+      <c r="H6" s="1"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" ht="16.5" spans="1:11">
+    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1">
         <v>1402</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="1">
         <v>14</v>
       </c>
-      <c r="E7" s="4">
-        <v>2</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="4" t="s">
+      <c r="E7" s="1">
+        <v>2</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="4"/>
+      <c r="H7" s="1"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
     </row>
-    <row r="8" ht="16.5" spans="1:11">
+    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1">
         <v>1403</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="1">
         <v>14</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="1">
         <v>3</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="4" t="s">
+      <c r="F8" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="4"/>
+      <c r="H8" s="1"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" ht="16.5" spans="1:11">
+    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" ht="16.5" spans="1:11">
+    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" ht="16.5" spans="1:11">
+    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -2879,21 +2267,20 @@
       <c r="K12" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N42" sqref="N42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="9" style="3"/>
     <col min="3" max="3" width="9.625" style="3" customWidth="1"/>
@@ -2905,7 +2292,7 @@
     <col min="9" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:8">
+    <row r="1" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2917,7 +2304,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" ht="16.5" spans="1:8">
+    <row r="2" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -2929,7 +2316,7 @@
       </c>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" ht="16.5" spans="1:8">
+    <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
@@ -2949,7 +2336,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" ht="16.5" spans="1:8">
+    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2" t="s">
@@ -2971,7 +2358,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="1:8">
+    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2" t="s">
@@ -2993,7 +2380,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" ht="16.5" spans="3:7">
+    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C6" s="1">
         <f>D6*100+E6</f>
         <v>201</v>
@@ -3011,7 +2398,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="3:7">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C7" s="3">
         <v>202</v>
       </c>
@@ -3028,7 +2415,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="3:7">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C8" s="3">
         <v>203</v>
       </c>
@@ -3041,38 +2428,37 @@
       <c r="F8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="3" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="C2:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="6" width="27.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="16.5" spans="7:7">
+    <row r="2" spans="3:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="G2" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" ht="15" spans="3:9">
+    <row r="3" spans="3:9" ht="15" x14ac:dyDescent="0.25">
       <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
@@ -3091,7 +2477,7 @@
       </c>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" ht="15" spans="3:9">
+    <row r="4" spans="3:9" ht="15" x14ac:dyDescent="0.25">
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
@@ -3112,7 +2498,7 @@
       </c>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" ht="15" spans="3:9">
+    <row r="5" spans="3:9" ht="15" x14ac:dyDescent="0.25">
       <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
@@ -3133,7 +2519,7 @@
       </c>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" ht="16.5" spans="3:9">
+    <row r="6" spans="3:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C6" s="1">
         <v>301</v>
       </c>
@@ -3152,32 +2538,31 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="3:9">
+    <row r="7" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="8"/>
+      <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="C2:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="14.75" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
@@ -3187,12 +2572,12 @@
     <col min="8" max="8" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="7:7">
-      <c r="G2" s="7" t="s">
+    <row r="2" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="G2" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" ht="15" spans="3:9">
+    <row r="3" spans="3:9" ht="15" x14ac:dyDescent="0.25">
       <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
@@ -3211,7 +2596,7 @@
       </c>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" ht="15" spans="3:9">
+    <row r="4" spans="3:9" ht="15" x14ac:dyDescent="0.25">
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
@@ -3232,7 +2617,7 @@
       </c>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" ht="15" spans="3:9">
+    <row r="5" spans="3:9" ht="15" x14ac:dyDescent="0.25">
       <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
@@ -3253,7 +2638,7 @@
       </c>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" ht="16.5" spans="3:9">
+    <row r="6" spans="3:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C6" s="1">
         <v>401</v>
       </c>
@@ -3269,46 +2654,45 @@
       <c r="G6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="8"/>
+      <c r="H6" s="3"/>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="3:9">
+    <row r="7" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="8"/>
+      <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="C2:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="6" max="6" width="18.875" customWidth="1"/>
     <col min="7" max="7" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="7:7">
-      <c r="G2" s="7" t="s">
+    <row r="2" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="G2" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" ht="15" spans="3:8">
+    <row r="3" spans="3:8" ht="15" x14ac:dyDescent="0.25">
       <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
@@ -3326,7 +2710,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" ht="15" spans="3:8">
+    <row r="4" spans="3:8" ht="15" x14ac:dyDescent="0.25">
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
@@ -3346,7 +2730,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" ht="15" spans="3:8">
+    <row r="5" spans="3:8" ht="15" x14ac:dyDescent="0.25">
       <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
@@ -3366,7 +2750,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" ht="16.5" spans="3:8">
+    <row r="6" spans="3:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C6" s="1">
         <v>501</v>
       </c>
@@ -3382,271 +2766,269 @@
       <c r="G6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="8"/>
-    </row>
-    <row r="7" spans="3:8">
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="8"/>
+      <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:I10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="$A10:$XFD10"/>
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="9" style="6"/>
-    <col min="4" max="4" width="17" style="6" customWidth="1"/>
-    <col min="5" max="5" width="9" style="6"/>
-    <col min="6" max="6" width="20.875" style="6" customWidth="1"/>
-    <col min="7" max="7" width="19.25" style="6" customWidth="1"/>
-    <col min="8" max="8" width="30.125" style="6" customWidth="1"/>
-    <col min="9" max="10" width="9" style="6"/>
+    <col min="3" max="3" width="9" style="5"/>
+    <col min="4" max="4" width="17" style="5" customWidth="1"/>
+    <col min="5" max="5" width="9" style="5"/>
+    <col min="6" max="6" width="20.875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="19.25" style="5" customWidth="1"/>
+    <col min="8" max="8" width="30.125" style="5" customWidth="1"/>
+    <col min="9" max="10" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:9">
+    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="5"/>
-    </row>
-    <row r="2" ht="16.5" spans="1:9">
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="4"/>
+    </row>
+    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9" t="s">
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="5"/>
-    </row>
-    <row r="3" ht="16.5" spans="1:9">
+      <c r="H2" s="7"/>
+      <c r="I2" s="4"/>
+    </row>
+    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="10" t="s">
+      <c r="C3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10" t="s">
+      <c r="G3" s="8"/>
+      <c r="H3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="5"/>
-    </row>
-    <row r="4" ht="16.5" spans="1:9">
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="10" t="s">
+      <c r="C4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="5"/>
-    </row>
-    <row r="5" ht="16.5" spans="1:9">
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="5"/>
-    </row>
-    <row r="6" ht="16.5" spans="1:9">
+      <c r="C5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
-      <c r="C6" s="9">
+      <c r="C6" s="7">
         <v>601</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="7">
         <v>6</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="7">
         <v>1</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-    </row>
-    <row r="7" ht="16.5" spans="1:9">
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
-      <c r="C7" s="9">
+      <c r="C7" s="7">
         <v>602</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="7">
         <v>6</v>
       </c>
-      <c r="E7" s="9">
-        <v>2</v>
-      </c>
-      <c r="F7" s="9" t="s">
+      <c r="E7" s="7">
+        <v>2</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-    </row>
-    <row r="8" ht="16.5" spans="1:9">
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="9">
+      <c r="C8" s="7">
         <v>603</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="7">
         <v>6</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="7">
         <v>3</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-    </row>
-    <row r="9" ht="16.5" spans="1:9">
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
-      <c r="C9" s="9">
+      <c r="C9" s="7">
         <v>604</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="7">
         <v>6</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="7">
         <v>4</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-    </row>
-    <row r="10" ht="16.5" spans="1:9">
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
-      <c r="C10" s="9">
+      <c r="C10" s="7">
         <v>605</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="7">
         <v>6</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="7">
         <v>5</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="4">
         <v>1</v>
       </c>
-      <c r="I10" s="5"/>
+      <c r="I10" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="C2:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="6" max="6" width="17.625" customWidth="1"/>
     <col min="7" max="7" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="7:7">
-      <c r="G2" s="7" t="s">
+    <row r="2" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="G2" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" ht="15" spans="3:8">
+    <row r="3" spans="3:8" ht="15" x14ac:dyDescent="0.25">
       <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
@@ -3664,7 +3046,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" ht="15" spans="3:8">
+    <row r="4" spans="3:8" ht="15" x14ac:dyDescent="0.25">
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
@@ -3684,7 +3066,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" ht="15" spans="3:8">
+    <row r="5" spans="3:8" ht="15" x14ac:dyDescent="0.25">
       <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
@@ -3704,7 +3086,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" ht="16.5" spans="3:8">
+    <row r="6" spans="3:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C6" s="1">
         <v>701</v>
       </c>
@@ -3720,45 +3102,44 @@
       <c r="G6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H6" s="8"/>
-    </row>
-    <row r="7" spans="3:8">
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="8"/>
+      <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A2:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="5" max="5" width="11" customWidth="1"/>
     <col min="6" max="6" width="23.25" customWidth="1"/>
     <col min="7" max="7" width="24.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="7:7">
-      <c r="G2" s="7" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="G2" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" ht="15" spans="3:8">
+    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
@@ -3776,7 +3157,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" ht="15" spans="3:8">
+    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
@@ -3796,7 +3177,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" ht="15" spans="3:8">
+    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
@@ -3816,7 +3197,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" ht="16.5" spans="1:8">
+    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="1">
@@ -3837,7 +3218,7 @@
       </c>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" ht="16.5" spans="1:8">
+    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3">
@@ -3857,7 +3238,7 @@
       </c>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" ht="16.5" spans="1:8">
+    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3">
@@ -3872,12 +3253,12 @@
       <c r="F8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="3" t="s">
         <v>21</v>
       </c>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -3887,7 +3268,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -3897,7 +3278,7 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -3907,7 +3288,7 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -3917,7 +3298,7 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -3927,7 +3308,7 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -3937,7 +3318,7 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -3947,7 +3328,7 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -3957,7 +3338,7 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -3968,26 +3349,25 @@
       <c r="H17" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="6" max="6" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:8">
+    <row r="1" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3999,7 +3379,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" ht="16.5" spans="1:8">
+    <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -4011,7 +3391,7 @@
       </c>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" ht="16.5" spans="1:8">
+    <row r="3" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
@@ -4031,7 +3411,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" ht="16.5" spans="1:8">
+    <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2" t="s">
@@ -4053,7 +3433,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="1:8">
+    <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2" t="s">
@@ -4075,7 +3455,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" ht="16.5" spans="1:8">
+    <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="1">
@@ -4095,7 +3475,7 @@
       </c>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" ht="16.5" spans="1:10">
+    <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="1">
@@ -4113,14 +3493,14 @@
       <c r="G7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="4">
         <v>1</v>
       </c>
-      <c r="I7" s="5"/>
-      <c r="J7" s="6"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="5"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Unity/Assets/Config/Excel/AIConfig.xlsx
+++ b/Unity/Assets/Config/Excel/AIConfig.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\mengjing\Unity\Assets\Config\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{773B4A6E-B1C7-4A36-A01B-873F5DF6BB4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6930" yWindow="330" windowWidth="23250" windowHeight="16200" tabRatio="809" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="27945" windowHeight="12375" tabRatio="809" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="AIConfig_1" sheetId="6" r:id="rId1"/>
@@ -29,6 +23,19 @@
     <sheet name="AIConfig_14" sheetId="19" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -201,22 +208,25 @@
   </si>
   <si>
     <t>TuoGuan_Follow</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>TuoGuan_ZhuiJi</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>TuoGuan_Attack</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -239,26 +249,155 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -271,8 +410,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -280,49 +605,335 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="49" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -580,19 +1191,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I25" sqref="A1:I25"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="2" width="9" style="3"/>
     <col min="3" max="3" width="9.625" style="3" customWidth="1"/>
@@ -604,7 +1215,7 @@
     <col min="9" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" ht="16.5" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -616,7 +1227,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" ht="16.5" spans="1:8">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -628,7 +1239,7 @@
       </c>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" ht="16.5" spans="1:8">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
@@ -648,7 +1259,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" ht="16.5" spans="1:8">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2" t="s">
@@ -670,7 +1281,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" ht="16.5" spans="1:8">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2" t="s">
@@ -692,7 +1303,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" ht="16.5" spans="3:7">
       <c r="C6" s="1">
         <v>101</v>
       </c>
@@ -709,7 +1320,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" ht="16.5" spans="3:7">
       <c r="C7" s="1">
         <v>102</v>
       </c>
@@ -726,7 +1337,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" ht="16.5" spans="3:7">
       <c r="C8" s="1">
         <v>103</v>
       </c>
@@ -743,7 +1354,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" ht="16.5" spans="3:7">
       <c r="C9" s="1">
         <v>104</v>
       </c>
@@ -761,26 +1372,27 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K20" sqref="A1:K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="6" max="6" width="23.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" ht="16.5" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -795,7 +1407,7 @@
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
     </row>
-    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" ht="16.5" spans="1:11">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -810,7 +1422,7 @@
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" ht="16.5" spans="1:11">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
@@ -833,7 +1445,7 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" ht="16.5" spans="1:11">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2" t="s">
@@ -858,7 +1470,7 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" ht="16.5" spans="1:11">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2" t="s">
@@ -883,7 +1495,7 @@
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
     </row>
-    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" ht="16.5" spans="1:11">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="1">
@@ -906,7 +1518,7 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -919,7 +1531,7 @@
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -932,7 +1544,7 @@
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -945,7 +1557,7 @@
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -958,7 +1570,7 @@
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -971,7 +1583,7 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -984,7 +1596,7 @@
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -997,7 +1609,7 @@
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1010,7 +1622,7 @@
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1023,7 +1635,7 @@
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1036,7 +1648,7 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:11">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1049,7 +1661,7 @@
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:11">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1063,25 +1675,26 @@
       <c r="K18" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N19" sqref="A1:N19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="6" max="6" width="16.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" ht="16.5" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1096,7 +1709,7 @@
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
     </row>
-    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" ht="16.5" spans="1:11">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1111,7 +1724,7 @@
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" ht="16.5" spans="1:11">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
@@ -1134,7 +1747,7 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" ht="16.5" spans="1:11">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2" t="s">
@@ -1159,7 +1772,7 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" ht="16.5" spans="1:11">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2" t="s">
@@ -1184,7 +1797,7 @@
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
     </row>
-    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" ht="16.5" spans="1:11">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="1">
@@ -1205,7 +1818,7 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -1218,7 +1831,7 @@
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -1231,7 +1844,7 @@
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -1244,7 +1857,7 @@
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -1257,7 +1870,7 @@
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -1270,7 +1883,7 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -1283,7 +1896,7 @@
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1296,7 +1909,7 @@
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1309,7 +1922,7 @@
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1322,7 +1935,7 @@
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1335,7 +1948,7 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:11">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1348,7 +1961,7 @@
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:11">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1362,26 +1975,27 @@
       <c r="K18" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="P29" sqref="A1:P29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="6" max="6" width="20.375" customWidth="1"/>
     <col min="7" max="7" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" ht="16.5" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1394,7 +2008,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="3"/>
     </row>
-    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" ht="16.5" spans="1:9">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1407,7 +2021,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" ht="16.5" spans="1:9">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
@@ -1428,7 +2042,7 @@
       </c>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" ht="16.5" spans="1:9">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2" t="s">
@@ -1451,7 +2065,7 @@
       </c>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" ht="16.5" spans="1:9">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2" t="s">
@@ -1474,7 +2088,7 @@
       </c>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" ht="16.5" spans="1:9">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="1">
@@ -1495,7 +2109,7 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" ht="16.5" spans="1:9">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="1">
@@ -1516,7 +2130,7 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" ht="16.5" spans="1:9">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="1">
@@ -1537,7 +2151,7 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" ht="16.5" spans="1:9">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="1">
@@ -1558,7 +2172,7 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -1569,7 +2183,7 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -1580,7 +2194,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -1591,7 +2205,7 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1602,7 +2216,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1613,7 +2227,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1624,7 +2238,7 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1635,7 +2249,7 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1646,7 +2260,7 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1657,7 +2271,7 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -1668,7 +2282,7 @@
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1679,7 +2293,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1690,7 +2304,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1701,7 +2315,7 @@
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1712,7 +2326,7 @@
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1723,7 +2337,7 @@
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1735,25 +2349,26 @@
       <c r="I25" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="6" max="6" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" ht="16.5" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1768,7 +2383,7 @@
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
     </row>
-    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" ht="16.5" spans="1:11">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1783,7 +2398,7 @@
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" ht="16.5" spans="1:11">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
@@ -1806,7 +2421,7 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" ht="16.5" spans="1:11">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2" t="s">
@@ -1831,7 +2446,7 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" ht="16.5" spans="1:11">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2" t="s">
@@ -1856,7 +2471,7 @@
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
     </row>
-    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" ht="16.5" spans="1:11">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="1">
@@ -1877,7 +2492,7 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -1890,7 +2505,7 @@
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -1903,7 +2518,7 @@
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -1916,7 +2531,7 @@
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -1929,7 +2544,7 @@
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -1942,7 +2557,7 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -1955,7 +2570,7 @@
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1968,7 +2583,7 @@
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1981,7 +2596,7 @@
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1994,7 +2609,7 @@
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -2007,7 +2622,7 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:11">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -2020,7 +2635,7 @@
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:11">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -2034,25 +2649,26 @@
       <c r="K18" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="6" max="6" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" ht="16.5" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2065,7 +2681,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="3"/>
     </row>
-    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" ht="16.5" spans="1:9">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -2078,7 +2694,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" ht="16.5" spans="1:9">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
@@ -2099,7 +2715,7 @@
       </c>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" ht="16.5" spans="1:9">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2" t="s">
@@ -2122,7 +2738,7 @@
       </c>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" ht="16.5" spans="1:9">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2" t="s">
@@ -2145,7 +2761,7 @@
       </c>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" ht="16.5" spans="1:11">
       <c r="A6" s="3"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1">
@@ -2157,7 +2773,7 @@
       <c r="E6" s="1">
         <v>1</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="4" t="s">
         <v>55</v>
       </c>
       <c r="G6" s="1" t="s">
@@ -2168,7 +2784,7 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" ht="16.5" spans="1:11">
       <c r="A7" s="3"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1">
@@ -2180,7 +2796,7 @@
       <c r="E7" s="1">
         <v>2</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="4" t="s">
         <v>56</v>
       </c>
       <c r="G7" s="1" t="s">
@@ -2191,7 +2807,7 @@
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
     </row>
-    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" ht="16.5" spans="1:11">
       <c r="A8" s="3"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1">
@@ -2203,7 +2819,7 @@
       <c r="E8" s="1">
         <v>3</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="4" t="s">
         <v>57</v>
       </c>
       <c r="G8" s="1" t="s">
@@ -2214,7 +2830,7 @@
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" ht="16.5" spans="1:11">
       <c r="A9" s="3"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -2227,7 +2843,7 @@
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" ht="16.5" spans="1:11">
       <c r="A10" s="3"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -2240,7 +2856,7 @@
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" ht="16.5" spans="1:11">
       <c r="A11" s="3"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -2253,7 +2869,7 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -2267,20 +2883,21 @@
       <c r="K12" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N42" sqref="N42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="2" width="9" style="3"/>
     <col min="3" max="3" width="9.625" style="3" customWidth="1"/>
@@ -2292,7 +2909,7 @@
     <col min="9" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" ht="16.5" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2304,7 +2921,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" ht="16.5" spans="1:8">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -2316,7 +2933,7 @@
       </c>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" ht="16.5" spans="1:8">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
@@ -2336,7 +2953,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" ht="16.5" spans="1:8">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2" t="s">
@@ -2358,7 +2975,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" ht="16.5" spans="1:8">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2" t="s">
@@ -2380,7 +2997,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" ht="16.5" spans="3:7">
       <c r="C6" s="1">
         <f>D6*100+E6</f>
         <v>201</v>
@@ -2398,7 +3015,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="3:7">
       <c r="C7" s="3">
         <v>202</v>
       </c>
@@ -2415,7 +3032,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="3:7">
       <c r="C8" s="3">
         <v>203</v>
       </c>
@@ -2433,32 +3050,33 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="C2:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
   <cols>
     <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="6" width="27.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" ht="16.5" spans="7:7">
       <c r="G2" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="3:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" ht="15" spans="3:9">
       <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
@@ -2477,7 +3095,7 @@
       </c>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="3:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" ht="15" spans="3:9">
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
@@ -2498,7 +3116,7 @@
       </c>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="3:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" ht="15" spans="3:9">
       <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
@@ -2519,7 +3137,7 @@
       </c>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="3:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" ht="16.5" spans="3:9">
       <c r="C6" s="1">
         <v>301</v>
       </c>
@@ -2538,7 +3156,7 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="3:9">
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -2548,21 +3166,22 @@
       <c r="I7" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="C2:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
   <cols>
     <col min="3" max="3" width="14.75" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
@@ -2572,12 +3191,12 @@
     <col min="8" max="8" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="G2" s="6" t="s">
+    <row r="2" spans="7:7">
+      <c r="G2" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="3:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" ht="15" spans="3:9">
       <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
@@ -2596,7 +3215,7 @@
       </c>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="3:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" ht="15" spans="3:9">
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
@@ -2617,7 +3236,7 @@
       </c>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="3:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" ht="15" spans="3:9">
       <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
@@ -2638,7 +3257,7 @@
       </c>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="3:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" ht="16.5" spans="3:9">
       <c r="C6" s="1">
         <v>401</v>
       </c>
@@ -2657,7 +3276,7 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="3:9">
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -2667,32 +3286,33 @@
       <c r="I7" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="C2:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="7"/>
   <cols>
     <col min="6" max="6" width="18.875" customWidth="1"/>
     <col min="7" max="7" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="G2" s="6" t="s">
+    <row r="2" spans="7:7">
+      <c r="G2" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="3:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" ht="15" spans="3:8">
       <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
@@ -2710,7 +3330,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="3:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" ht="15" spans="3:8">
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
@@ -2730,7 +3350,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="3:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" ht="15" spans="3:8">
       <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
@@ -2750,7 +3370,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="3:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" ht="16.5" spans="3:8">
       <c r="C6" s="1">
         <v>501</v>
       </c>
@@ -2768,7 +3388,7 @@
       </c>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="3:8">
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -2777,258 +3397,260 @@
       <c r="H7" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:J10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="9" style="5"/>
-    <col min="4" max="4" width="17" style="5" customWidth="1"/>
-    <col min="5" max="5" width="9" style="5"/>
-    <col min="6" max="6" width="20.875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="19.25" style="5" customWidth="1"/>
-    <col min="8" max="8" width="30.125" style="5" customWidth="1"/>
-    <col min="9" max="10" width="9" style="5"/>
+    <col min="3" max="3" width="9" style="6"/>
+    <col min="4" max="4" width="17" style="6" customWidth="1"/>
+    <col min="5" max="5" width="9" style="6"/>
+    <col min="6" max="6" width="20.875" style="6" customWidth="1"/>
+    <col min="7" max="7" width="19.25" style="6" customWidth="1"/>
+    <col min="8" max="8" width="30.125" style="6" customWidth="1"/>
+    <col min="9" max="10" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" ht="16.5" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="4"/>
-    </row>
-    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="5"/>
+    </row>
+    <row r="2" ht="16.5" spans="1:9">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7" t="s">
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="4"/>
-    </row>
-    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="H2" s="8"/>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" ht="16.5" spans="1:9">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8" t="s">
+      <c r="G3" s="9"/>
+      <c r="H3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="4"/>
-    </row>
-    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" ht="16.5" spans="1:9">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="4"/>
-    </row>
-    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" ht="16.5" spans="1:9">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="C5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" ht="16.5" spans="1:9">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
-      <c r="C6" s="7">
+      <c r="C6" s="8">
         <v>601</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="8">
         <v>6</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="8">
         <v>1</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" ht="16.5" spans="1:9">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
-      <c r="C7" s="7">
+      <c r="C7" s="8">
         <v>602</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="8">
         <v>6</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="8">
         <v>2</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-    </row>
-    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" ht="16.5" spans="1:9">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="7">
+      <c r="C8" s="8">
         <v>603</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="8">
         <v>6</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="8">
         <v>3</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-    </row>
-    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" ht="16.5" spans="1:9">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
-      <c r="C9" s="7">
+      <c r="C9" s="8">
         <v>604</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="8">
         <v>6</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="8">
         <v>4</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-    </row>
-    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" ht="16.5" spans="1:9">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
-      <c r="C10" s="7">
+      <c r="C10" s="8">
         <v>605</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="8">
         <v>6</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="8">
         <v>5</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="5">
         <v>1</v>
       </c>
-      <c r="I10" s="4"/>
+      <c r="I10" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="C2:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="7"/>
   <cols>
     <col min="6" max="6" width="17.625" customWidth="1"/>
     <col min="7" max="7" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="G2" s="6" t="s">
+    <row r="2" spans="7:7">
+      <c r="G2" s="7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="3:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" ht="15" spans="3:8">
       <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
@@ -3046,7 +3668,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="3:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" ht="15" spans="3:8">
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
@@ -3066,7 +3688,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="3:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" ht="15" spans="3:8">
       <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
@@ -3086,7 +3708,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="3:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" ht="16.5" spans="3:8">
       <c r="C6" s="1">
         <v>701</v>
       </c>
@@ -3104,7 +3726,7 @@
       </c>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="3:8">
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -3113,33 +3735,34 @@
       <c r="H7" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A2:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="5" max="5" width="11" customWidth="1"/>
     <col min="6" max="6" width="23.25" customWidth="1"/>
     <col min="7" max="7" width="24.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="G2" s="6" t="s">
+    <row r="2" spans="7:7">
+      <c r="G2" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" ht="15" spans="3:8">
       <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
@@ -3157,7 +3780,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" ht="15" spans="3:8">
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
@@ -3177,7 +3800,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" ht="15" spans="3:8">
       <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
@@ -3197,7 +3820,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" ht="16.5" spans="1:8">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="1">
@@ -3218,7 +3841,7 @@
       </c>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" ht="16.5" spans="1:8">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3">
@@ -3238,7 +3861,7 @@
       </c>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" ht="16.5" spans="1:8">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3">
@@ -3258,7 +3881,7 @@
       </c>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -3268,7 +3891,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -3278,7 +3901,7 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -3288,7 +3911,7 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -3298,7 +3921,7 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -3308,7 +3931,7 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -3318,7 +3941,7 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -3328,7 +3951,7 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -3338,7 +3961,7 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -3349,25 +3972,26 @@
       <c r="H17" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
   <cols>
     <col min="6" max="6" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" ht="16.5" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3379,7 +4003,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" ht="16.5" spans="1:8">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -3391,7 +4015,7 @@
       </c>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" ht="16.5" spans="1:8">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
@@ -3411,7 +4035,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" ht="16.5" spans="1:8">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2" t="s">
@@ -3433,7 +4057,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" ht="16.5" spans="1:8">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2" t="s">
@@ -3455,7 +4079,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" ht="16.5" spans="1:8">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="1">
@@ -3475,7 +4099,7 @@
       </c>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" ht="16.5" spans="1:10">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="1">
@@ -3493,14 +4117,14 @@
       <c r="G7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="5">
         <v>1</v>
       </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="6"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Unity/Assets/Config/Excel/AIConfig.xlsx
+++ b/Unity/Assets/Config/Excel/AIConfig.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\mengjing\Unity\Assets\Config\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7B669B8-7557-4A29-8DF5-0BAB31AB2EA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" tabRatio="809" activeTab="7"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="809" firstSheet="2" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AIConfig_1" sheetId="6" r:id="rId1"/>
@@ -21,26 +27,14 @@
     <sheet name="AIConfig_12" sheetId="17" r:id="rId12"/>
     <sheet name="AIConfig_13" sheetId="18" r:id="rId13"/>
     <sheet name="AIConfig_14" sheetId="19" r:id="rId14"/>
+    <sheet name="AIConfig_15" sheetId="20" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="62">
   <si>
     <t>cs</t>
   </si>
@@ -214,19 +208,29 @@
   </si>
   <si>
     <t>TuoGuan_Attack</t>
+  </si>
+  <si>
+    <t>AI_Attack</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI_ZhuiJi</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>#宠物放置战斗</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI_GetTarget</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -253,151 +257,28 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -410,194 +291,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -605,335 +300,47 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="49" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1191,19 +598,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="9" style="3"/>
     <col min="3" max="3" width="9.625" style="3" customWidth="1"/>
@@ -1215,7 +622,7 @@
     <col min="9" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:8">
+    <row r="1" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1227,7 +634,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" ht="16.5" spans="1:8">
+    <row r="2" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1239,7 +646,7 @@
       </c>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" ht="16.5" spans="1:8">
+    <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
@@ -1259,7 +666,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" ht="16.5" spans="1:8">
+    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2" t="s">
@@ -1281,7 +688,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="1:8">
+    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2" t="s">
@@ -1303,7 +710,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" ht="16.5" spans="3:7">
+    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C6" s="1">
         <v>101</v>
       </c>
@@ -1320,7 +727,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" ht="16.5" spans="3:7">
+    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C7" s="1">
         <v>102</v>
       </c>
@@ -1337,7 +744,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" ht="16.5" spans="3:7">
+    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C8" s="1">
         <v>103</v>
       </c>
@@ -1347,14 +754,14 @@
       <c r="E8" s="1">
         <v>3</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>18</v>
+      <c r="F8" s="9" t="s">
+        <v>59</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" ht="16.5" spans="3:7">
+    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C9" s="1">
         <v>104</v>
       </c>
@@ -1372,27 +779,26 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K20" sqref="A1:K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="6" max="6" width="23.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:11">
+    <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1407,7 +813,7 @@
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
     </row>
-    <row r="2" ht="16.5" spans="1:11">
+    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1422,7 +828,7 @@
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" ht="16.5" spans="1:11">
+    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
@@ -1445,7 +851,7 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" ht="16.5" spans="1:11">
+    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2" t="s">
@@ -1470,7 +876,7 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" ht="16.5" spans="1:11">
+    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2" t="s">
@@ -1495,7 +901,7 @@
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
     </row>
-    <row r="6" ht="16.5" spans="1:11">
+    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="1">
@@ -1518,7 +924,7 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -1531,7 +937,7 @@
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -1544,7 +950,7 @@
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -1557,7 +963,7 @@
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -1570,7 +976,7 @@
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -1583,7 +989,7 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -1596,7 +1002,7 @@
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1609,7 +1015,7 @@
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1622,7 +1028,7 @@
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1635,7 +1041,7 @@
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1648,7 +1054,7 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1661,7 +1067,7 @@
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1675,26 +1081,25 @@
       <c r="K18" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N19" sqref="A1:N19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="6" max="6" width="16.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:11">
+    <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1709,7 +1114,7 @@
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
     </row>
-    <row r="2" ht="16.5" spans="1:11">
+    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1724,7 +1129,7 @@
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" ht="16.5" spans="1:11">
+    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
@@ -1747,7 +1152,7 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" ht="16.5" spans="1:11">
+    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2" t="s">
@@ -1772,7 +1177,7 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" ht="16.5" spans="1:11">
+    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2" t="s">
@@ -1797,7 +1202,7 @@
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
     </row>
-    <row r="6" ht="16.5" spans="1:11">
+    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="1">
@@ -1818,7 +1223,7 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -1831,7 +1236,7 @@
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -1844,7 +1249,7 @@
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -1857,7 +1262,7 @@
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -1870,7 +1275,7 @@
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -1883,7 +1288,7 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -1896,7 +1301,7 @@
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1909,7 +1314,7 @@
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1922,7 +1327,7 @@
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1935,7 +1340,7 @@
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1948,7 +1353,7 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1961,7 +1366,7 @@
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1975,27 +1380,26 @@
       <c r="K18" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="P29" sqref="A1:P29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="6" max="6" width="20.375" customWidth="1"/>
     <col min="7" max="7" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:9">
+    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2008,7 +1412,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="3"/>
     </row>
-    <row r="2" ht="16.5" spans="1:9">
+    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -2021,7 +1425,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" ht="16.5" spans="1:9">
+    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
@@ -2042,7 +1446,7 @@
       </c>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" ht="16.5" spans="1:9">
+    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2" t="s">
@@ -2065,7 +1469,7 @@
       </c>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" ht="16.5" spans="1:9">
+    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2" t="s">
@@ -2088,7 +1492,7 @@
       </c>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" ht="16.5" spans="1:9">
+    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="1">
@@ -2109,7 +1513,7 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" ht="16.5" spans="1:9">
+    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="1">
@@ -2130,7 +1534,7 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" ht="16.5" spans="1:9">
+    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="1">
@@ -2151,7 +1555,7 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" ht="16.5" spans="1:9">
+    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="1">
@@ -2172,7 +1576,7 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -2183,7 +1587,7 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -2194,7 +1598,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -2205,7 +1609,7 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -2216,7 +1620,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -2227,7 +1631,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -2238,7 +1642,7 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -2249,7 +1653,7 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -2260,7 +1664,7 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -2271,7 +1675,7 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -2282,7 +1686,7 @@
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -2293,7 +1697,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -2304,7 +1708,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -2315,7 +1719,7 @@
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -2326,7 +1730,7 @@
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -2337,7 +1741,7 @@
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -2349,26 +1753,25 @@
       <c r="I25" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="6" max="6" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:11">
+    <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2383,7 +1786,7 @@
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
     </row>
-    <row r="2" ht="16.5" spans="1:11">
+    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -2398,7 +1801,7 @@
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" ht="16.5" spans="1:11">
+    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
@@ -2421,7 +1824,7 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" ht="16.5" spans="1:11">
+    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2" t="s">
@@ -2446,7 +1849,7 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" ht="16.5" spans="1:11">
+    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2" t="s">
@@ -2471,7 +1874,7 @@
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
     </row>
-    <row r="6" ht="16.5" spans="1:11">
+    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="1">
@@ -2492,7 +1895,7 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -2505,7 +1908,7 @@
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -2518,7 +1921,7 @@
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -2531,7 +1934,7 @@
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -2544,7 +1947,7 @@
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -2557,7 +1960,7 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -2570,7 +1973,7 @@
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -2583,7 +1986,7 @@
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -2596,7 +1999,7 @@
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -2609,7 +2012,7 @@
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -2622,7 +2025,7 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -2635,7 +2038,7 @@
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -2649,26 +2052,25 @@
       <c r="K18" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="H8" sqref="A1:H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="6" max="6" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:9">
+    <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2681,7 +2083,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="3"/>
     </row>
-    <row r="2" ht="16.5" spans="1:9">
+    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -2694,7 +2096,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" ht="16.5" spans="1:9">
+    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
@@ -2715,7 +2117,7 @@
       </c>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" ht="16.5" spans="1:9">
+    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2" t="s">
@@ -2738,7 +2140,7 @@
       </c>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" ht="16.5" spans="1:9">
+    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2" t="s">
@@ -2761,7 +2163,7 @@
       </c>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" ht="16.5" spans="1:11">
+    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1">
@@ -2784,7 +2186,7 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" ht="16.5" spans="1:11">
+    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1">
@@ -2807,7 +2209,7 @@
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
     </row>
-    <row r="8" ht="16.5" spans="1:11">
+    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1">
@@ -2830,7 +2232,7 @@
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" ht="16.5" spans="1:11">
+    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -2843,7 +2245,7 @@
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" ht="16.5" spans="1:11">
+    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -2856,7 +2258,7 @@
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" ht="16.5" spans="1:11">
+    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -2869,7 +2271,7 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -2883,21 +2285,160 @@
       <c r="K12" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD6976DA-64D7-4177-B3CD-E0B36A27BCF3}">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="6" max="6" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C6" s="1">
+        <v>1501</v>
+      </c>
+      <c r="D6" s="1">
+        <v>15</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1">
+        <v>1502</v>
+      </c>
+      <c r="D7" s="1">
+        <v>15</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N42" sqref="N42"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="9" style="3"/>
     <col min="3" max="3" width="9.625" style="3" customWidth="1"/>
@@ -2909,7 +2450,7 @@
     <col min="9" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:8">
+    <row r="1" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2921,7 +2462,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" ht="16.5" spans="1:8">
+    <row r="2" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -2933,7 +2474,7 @@
       </c>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" ht="16.5" spans="1:8">
+    <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
@@ -2953,7 +2494,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" ht="16.5" spans="1:8">
+    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2" t="s">
@@ -2975,7 +2516,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="1:8">
+    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2" t="s">
@@ -2997,7 +2538,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" ht="16.5" spans="3:7">
+    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C6" s="1">
         <f>D6*100+E6</f>
         <v>201</v>
@@ -3015,7 +2556,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="3:7">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C7" s="3">
         <v>202</v>
       </c>
@@ -3032,7 +2573,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="3:7">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C8" s="3">
         <v>203</v>
       </c>
@@ -3050,33 +2591,32 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="C2:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="6" width="27.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="16.5" spans="7:7">
+    <row r="2" spans="3:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="G2" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" ht="15" spans="3:9">
+    <row r="3" spans="3:9" ht="15" x14ac:dyDescent="0.25">
       <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
@@ -3095,7 +2635,7 @@
       </c>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" ht="15" spans="3:9">
+    <row r="4" spans="3:9" ht="15" x14ac:dyDescent="0.25">
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
@@ -3116,7 +2656,7 @@
       </c>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" ht="15" spans="3:9">
+    <row r="5" spans="3:9" ht="15" x14ac:dyDescent="0.25">
       <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
@@ -3137,7 +2677,7 @@
       </c>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" ht="16.5" spans="3:9">
+    <row r="6" spans="3:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C6" s="1">
         <v>301</v>
       </c>
@@ -3156,7 +2696,7 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="3:9">
+    <row r="7" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -3166,22 +2706,21 @@
       <c r="I7" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="C2:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="14.75" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
@@ -3191,12 +2730,12 @@
     <col min="8" max="8" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="7:7">
-      <c r="G2" s="7" t="s">
+    <row r="2" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="G2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" ht="15" spans="3:9">
+    <row r="3" spans="3:9" ht="15" x14ac:dyDescent="0.25">
       <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
@@ -3215,7 +2754,7 @@
       </c>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" ht="15" spans="3:9">
+    <row r="4" spans="3:9" ht="15" x14ac:dyDescent="0.25">
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
@@ -3236,7 +2775,7 @@
       </c>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" ht="15" spans="3:9">
+    <row r="5" spans="3:9" ht="15" x14ac:dyDescent="0.25">
       <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
@@ -3257,7 +2796,7 @@
       </c>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" ht="16.5" spans="3:9">
+    <row r="6" spans="3:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C6" s="1">
         <v>401</v>
       </c>
@@ -3276,7 +2815,7 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="3:9">
+    <row r="7" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -3286,33 +2825,32 @@
       <c r="I7" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="C2:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="6" max="6" width="18.875" customWidth="1"/>
     <col min="7" max="7" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="7:7">
-      <c r="G2" s="7" t="s">
+    <row r="2" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="G2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" ht="15" spans="3:8">
+    <row r="3" spans="3:8" ht="15" x14ac:dyDescent="0.25">
       <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
@@ -3330,7 +2868,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" ht="15" spans="3:8">
+    <row r="4" spans="3:8" ht="15" x14ac:dyDescent="0.25">
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
@@ -3350,7 +2888,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" ht="15" spans="3:8">
+    <row r="5" spans="3:8" ht="15" x14ac:dyDescent="0.25">
       <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
@@ -3370,7 +2908,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" ht="16.5" spans="3:8">
+    <row r="6" spans="3:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C6" s="1">
         <v>501</v>
       </c>
@@ -3388,7 +2926,7 @@
       </c>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="3:8">
+    <row r="7" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -3397,22 +2935,21 @@
       <c r="H7" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:I10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="9" style="6"/>
     <col min="4" max="4" width="17" style="6" customWidth="1"/>
@@ -3423,199 +2960,199 @@
     <col min="9" max="10" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:9">
+    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
       <c r="I1" s="5"/>
     </row>
-    <row r="2" ht="16.5" spans="1:9">
+    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8" t="s">
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="8"/>
+      <c r="H2" s="7"/>
       <c r="I2" s="5"/>
     </row>
-    <row r="3" ht="16.5" spans="1:9">
+    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="9" t="s">
+      <c r="C3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9" t="s">
+      <c r="G3" s="8"/>
+      <c r="H3" s="8" t="s">
         <v>6</v>
       </c>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" ht="16.5" spans="1:9">
+    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="9" t="s">
+      <c r="C4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="8" t="s">
         <v>11</v>
       </c>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" ht="16.5" spans="1:9">
+    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="9" t="s">
+      <c r="C5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="8" t="s">
         <v>13</v>
       </c>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" ht="16.5" spans="1:9">
+    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <v>601</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="7">
         <v>6</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="7">
         <v>1</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" ht="16.5" spans="1:9">
+    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <v>602</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="7">
         <v>6</v>
       </c>
-      <c r="E7" s="8">
-        <v>2</v>
-      </c>
-      <c r="F7" s="8" t="s">
+      <c r="E7" s="7">
+        <v>2</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" ht="16.5" spans="1:9">
+    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="8">
+      <c r="C8" s="7">
         <v>603</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="7">
         <v>6</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="7">
         <v>3</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
     </row>
-    <row r="9" ht="16.5" spans="1:9">
+    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
-      <c r="C9" s="8">
+      <c r="C9" s="7">
         <v>604</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="7">
         <v>6</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="7">
         <v>4</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="7" t="s">
         <v>21</v>
       </c>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" ht="16.5" spans="1:9">
+    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
-      <c r="C10" s="8">
+      <c r="C10" s="7">
         <v>605</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="7">
         <v>6</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="7">
         <v>5</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="7" t="s">
         <v>38</v>
       </c>
       <c r="H10" s="5">
@@ -3624,33 +3161,32 @@
       <c r="I10" s="5"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="C2:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="6" max="6" width="17.625" customWidth="1"/>
     <col min="7" max="7" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="7:7">
-      <c r="G2" s="7" t="s">
+    <row r="2" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="G2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" ht="15" spans="3:8">
+    <row r="3" spans="3:8" ht="15" x14ac:dyDescent="0.25">
       <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
@@ -3668,7 +3204,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" ht="15" spans="3:8">
+    <row r="4" spans="3:8" ht="15" x14ac:dyDescent="0.25">
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
@@ -3688,7 +3224,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" ht="15" spans="3:8">
+    <row r="5" spans="3:8" ht="15" x14ac:dyDescent="0.25">
       <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
@@ -3708,7 +3244,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" ht="16.5" spans="3:8">
+    <row r="6" spans="3:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C6" s="1">
         <v>701</v>
       </c>
@@ -3726,7 +3262,7 @@
       </c>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="3:8">
+    <row r="7" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -3735,34 +3271,33 @@
       <c r="H7" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A2:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="5" max="5" width="11" customWidth="1"/>
     <col min="6" max="6" width="23.25" customWidth="1"/>
     <col min="7" max="7" width="24.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="7:7">
-      <c r="G2" s="7" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="G2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" ht="15" spans="3:8">
+    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
@@ -3780,7 +3315,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" ht="15" spans="3:8">
+    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
@@ -3800,7 +3335,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" ht="15" spans="3:8">
+    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
@@ -3820,7 +3355,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" ht="16.5" spans="1:8">
+    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="1">
@@ -3841,7 +3376,7 @@
       </c>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" ht="16.5" spans="1:8">
+    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3">
@@ -3861,7 +3396,7 @@
       </c>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" ht="16.5" spans="1:8">
+    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3">
@@ -3881,7 +3416,7 @@
       </c>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -3891,7 +3426,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -3901,7 +3436,7 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -3911,7 +3446,7 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -3921,7 +3456,7 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -3931,7 +3466,7 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -3941,7 +3476,7 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -3951,7 +3486,7 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -3961,7 +3496,7 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -3972,26 +3507,25 @@
       <c r="H17" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="6" max="6" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:8">
+    <row r="1" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4003,7 +3537,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" ht="16.5" spans="1:8">
+    <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -4015,7 +3549,7 @@
       </c>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" ht="16.5" spans="1:8">
+    <row r="3" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
@@ -4035,7 +3569,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" ht="16.5" spans="1:8">
+    <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2" t="s">
@@ -4057,7 +3591,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="1:8">
+    <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2" t="s">
@@ -4079,7 +3613,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" ht="16.5" spans="1:8">
+    <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="1">
@@ -4099,7 +3633,7 @@
       </c>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" ht="16.5" spans="1:10">
+    <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="1">
@@ -4124,7 +3658,7 @@
       <c r="J7" s="6"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Unity/Assets/Config/Excel/AIConfig.xlsx
+++ b/Unity/Assets/Config/Excel/AIConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\mengjing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7B669B8-7557-4A29-8DF5-0BAB31AB2EA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{028DB77B-8045-4229-BAFA-1A035CC04C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="809" firstSheet="2" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="809" firstSheet="3" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AIConfig_1" sheetId="6" r:id="rId1"/>
@@ -28,13 +28,14 @@
     <sheet name="AIConfig_13" sheetId="18" r:id="rId13"/>
     <sheet name="AIConfig_14" sheetId="19" r:id="rId14"/>
     <sheet name="AIConfig_15" sheetId="20" r:id="rId15"/>
+    <sheet name="AIConfig_16" sheetId="21" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="64">
   <si>
     <t>cs</t>
   </si>
@@ -136,9 +137,6 @@
   </si>
   <si>
     <t>#战场兵线1</t>
-  </si>
-  <si>
-    <t>AI_Target</t>
   </si>
   <si>
     <t>目标点</t>
@@ -223,6 +221,18 @@
   </si>
   <si>
     <t>AI_GetTarget</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Desc</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>#怪物放置战斗</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI_Target</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -230,7 +240,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -277,6 +287,13 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -307,7 +324,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -328,6 +345,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -755,7 +776,7 @@
         <v>3</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>19</v>
@@ -821,7 +842,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="3"/>
@@ -914,7 +935,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>24</v>
@@ -1122,7 +1143,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="3"/>
@@ -1215,7 +1236,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="3"/>
@@ -1420,7 +1441,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="3"/>
@@ -1505,10 +1526,10 @@
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -1794,7 +1815,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="3"/>
@@ -1887,7 +1908,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="3"/>
@@ -2091,7 +2112,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="3"/>
@@ -2176,7 +2197,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>24</v>
@@ -2199,7 +2220,7 @@
         <v>2</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>19</v>
@@ -2222,7 +2243,7 @@
         <v>3</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>21</v>
@@ -2294,8 +2315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD6976DA-64D7-4177-B3CD-E0B36A27BCF3}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2323,7 +2344,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H2" s="1"/>
     </row>
@@ -2402,7 +2423,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G6" s="1"/>
     </row>
@@ -2419,7 +2440,150 @@
         <v>2</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A029A86-A1F0-4EEC-92E8-764728C61739}">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="6" max="6" width="12.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="1">
+        <v>1601</v>
+      </c>
+      <c r="D6" s="1">
+        <v>16</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1">
+        <v>1602</v>
+      </c>
+      <c r="D7" s="1">
+        <v>16</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -2946,7 +3110,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3065,11 +3229,11 @@
       <c r="E6" s="7">
         <v>1</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
@@ -3087,7 +3251,7 @@
         <v>2</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>17</v>
@@ -3107,8 +3271,8 @@
       <c r="E8" s="7">
         <v>3</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>18</v>
+      <c r="F8" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
@@ -3150,10 +3314,10 @@
         <v>5</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="H10" s="5">
         <v>1</v>
@@ -3183,7 +3347,7 @@
   <sheetData>
     <row r="2" spans="3:8" x14ac:dyDescent="0.15">
       <c r="G2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="3:8" ht="15" x14ac:dyDescent="0.25">
@@ -3255,10 +3419,10 @@
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="H6" s="3"/>
     </row>
@@ -3294,7 +3458,7 @@
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="G2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.25">
@@ -3626,10 +3790,10 @@
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="H6" s="3"/>
     </row>
@@ -3646,10 +3810,10 @@
         <v>2</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="H7" s="5">
         <v>1</v>

--- a/Unity/Assets/Config/Excel/AIConfig.xlsx
+++ b/Unity/Assets/Config/Excel/AIConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\mengjing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{028DB77B-8045-4229-BAFA-1A035CC04C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{411F040C-9436-4C1B-B41B-2B2E94B801D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="809" firstSheet="3" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="65">
   <si>
     <t>cs</t>
   </si>
@@ -233,6 +233,10 @@
   </si>
   <si>
     <t>AI_Target</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI_PetMelee_MonsterTarget</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2456,7 +2460,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2565,7 +2569,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="3"/>

--- a/Unity/Assets/Config/Excel/AIConfig.xlsx
+++ b/Unity/Assets/Config/Excel/AIConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\mengjing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{411F040C-9436-4C1B-B41B-2B2E94B801D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94DF67A5-0539-4C37-B8A9-B135B776CA88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="809" firstSheet="3" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -216,27 +216,27 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>#宠物放置战斗</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>AI_GetTarget</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>Desc</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>#怪物放置战斗</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>AI_Target</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>AI_PetMelee_MonsterTarget</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI_PetMelee_PetTarget</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>#宠物放置战斗_宠物</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>#宠物放置战斗_怪物</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2320,7 +2320,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H7"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2348,7 +2348,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="9" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H2" s="1"/>
     </row>
@@ -2427,7 +2427,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G6" s="1"/>
     </row>
@@ -2460,7 +2460,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2488,7 +2488,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H2" s="1"/>
     </row>
@@ -2528,7 +2528,7 @@
         <v>9</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>11</v>
@@ -2569,7 +2569,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="3"/>
@@ -3234,7 +3234,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>34</v>

--- a/Unity/Assets/Config/Excel/AIConfig.xlsx
+++ b/Unity/Assets/Config/Excel/AIConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" tabRatio="809" firstSheet="3" activeTab="13"/>
+    <workbookView windowWidth="28800" windowHeight="12795" tabRatio="809" firstSheet="3" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="AIConfig_1" sheetId="6" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="62">
   <si>
     <t>cs</t>
   </si>
@@ -240,7 +240,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -251,18 +251,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -743,145 +731,143 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -892,10 +878,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1226,14 +1209,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="2" width="9" style="5"/>
-    <col min="3" max="3" width="9.625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="11.625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="15.875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="23.875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="9.25" style="5" customWidth="1"/>
-    <col min="8" max="8" width="14.375" style="5" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="5"/>
+    <col min="1" max="2" width="9" style="3"/>
+    <col min="3" max="3" width="9.625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="15.875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="23.875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="9.25" style="3" customWidth="1"/>
+    <col min="8" max="8" width="14.375" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" spans="1:8">
@@ -1263,64 +1246,64 @@
     <row r="3" ht="16.5" spans="1:8">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3" t="s">
+      <c r="G3" s="2"/>
+      <c r="H3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:8">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" ht="16.5" spans="1:8">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="3" t="s">
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1368,7 +1351,7 @@
       <c r="E8" s="1">
         <v>3</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G8" s="1" t="s">
@@ -1424,9 +1407,9 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
     </row>
     <row r="2" ht="16.5" spans="1:11">
       <c r="A2" s="1"/>
@@ -1439,86 +1422,86 @@
         <v>45</v>
       </c>
       <c r="H2" s="1"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
     </row>
     <row r="3" ht="16.5" spans="1:11">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3" t="s">
+      <c r="G3" s="2"/>
+      <c r="H3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
     </row>
     <row r="4" ht="16.5" spans="1:11">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
     </row>
     <row r="5" ht="16.5" spans="1:11">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
     </row>
     <row r="6" ht="16.5" spans="1:11">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
       <c r="C6" s="1">
         <v>1001</v>
       </c>
@@ -1534,166 +1517,166 @@
       <c r="G6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1726,9 +1709,9 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
     </row>
     <row r="2" ht="16.5" spans="1:11">
       <c r="A2" s="1"/>
@@ -1741,86 +1724,86 @@
         <v>47</v>
       </c>
       <c r="H2" s="1"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
     </row>
     <row r="3" ht="16.5" spans="1:11">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3" t="s">
+      <c r="G3" s="2"/>
+      <c r="H3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
     </row>
     <row r="4" ht="16.5" spans="1:11">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
     </row>
     <row r="5" ht="16.5" spans="1:11">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
     </row>
     <row r="6" ht="16.5" spans="1:11">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
       <c r="C6" s="1">
         <v>1101</v>
       </c>
@@ -1834,166 +1817,166 @@
         <v>48</v>
       </c>
       <c r="G6" s="1"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2027,7 +2010,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="5"/>
+      <c r="I1" s="3"/>
     </row>
     <row r="2" ht="16.5" spans="1:9">
       <c r="A2" s="1"/>
@@ -2040,78 +2023,78 @@
         <v>49</v>
       </c>
       <c r="H2" s="1"/>
-      <c r="I2" s="5"/>
+      <c r="I2" s="3"/>
     </row>
     <row r="3" ht="16.5" spans="1:9">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3" t="s">
+      <c r="G3" s="2"/>
+      <c r="H3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="5"/>
+      <c r="I3" s="3"/>
     </row>
     <row r="4" ht="16.5" spans="1:9">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="5"/>
+      <c r="I4" s="3"/>
     </row>
     <row r="5" ht="16.5" spans="1:9">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="5"/>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="3"/>
     </row>
     <row r="6" ht="16.5" spans="1:9">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
       <c r="C6" s="1">
         <v>1201</v>
       </c>
@@ -2127,12 +2110,12 @@
       <c r="G6" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
     </row>
     <row r="7" ht="16.5" spans="1:9">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
       <c r="C7" s="1">
         <v>1202</v>
       </c>
@@ -2148,12 +2131,12 @@
       <c r="G7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
     </row>
     <row r="8" ht="16.5" spans="1:9">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
       <c r="C8" s="1">
         <v>1203</v>
       </c>
@@ -2169,12 +2152,12 @@
       <c r="G8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
     </row>
     <row r="9" ht="16.5" spans="1:9">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
       <c r="C9" s="1">
         <v>1204</v>
       </c>
@@ -2190,184 +2173,184 @@
       <c r="G9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2400,9 +2383,9 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
     </row>
     <row r="2" ht="16.5" spans="1:11">
       <c r="A2" s="1"/>
@@ -2415,86 +2398,86 @@
         <v>52</v>
       </c>
       <c r="H2" s="1"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
     </row>
     <row r="3" ht="16.5" spans="1:11">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3" t="s">
+      <c r="G3" s="2"/>
+      <c r="H3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
     </row>
     <row r="4" ht="16.5" spans="1:11">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
     </row>
     <row r="5" ht="16.5" spans="1:11">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
     </row>
     <row r="6" ht="16.5" spans="1:11">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
       <c r="C6" s="1">
         <v>1301</v>
       </c>
@@ -2508,166 +2491,166 @@
         <v>53</v>
       </c>
       <c r="G6" s="1"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2680,7 +2663,7 @@
   <sheetPr/>
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -2700,7 +2683,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="5"/>
+      <c r="I1" s="3"/>
     </row>
     <row r="2" ht="16.5" spans="1:9">
       <c r="A2" s="1"/>
@@ -2713,77 +2696,77 @@
         <v>54</v>
       </c>
       <c r="H2" s="1"/>
-      <c r="I2" s="5"/>
+      <c r="I2" s="3"/>
     </row>
     <row r="3" ht="16.5" spans="1:9">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3" t="s">
+      <c r="G3" s="2"/>
+      <c r="H3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="5"/>
+      <c r="I3" s="3"/>
     </row>
     <row r="4" ht="16.5" spans="1:9">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="5"/>
+      <c r="I4" s="3"/>
     </row>
     <row r="5" ht="16.5" spans="1:9">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="5"/>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="3"/>
     </row>
     <row r="6" ht="16.5" spans="1:11">
-      <c r="A6" s="5"/>
+      <c r="A6" s="3"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1">
         <v>1401</v>
@@ -2801,12 +2784,12 @@
         <v>24</v>
       </c>
       <c r="H6" s="1"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
     </row>
     <row r="7" ht="16.5" spans="1:11">
-      <c r="A7" s="5"/>
+      <c r="A7" s="3"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1">
         <v>1402</v>
@@ -2824,12 +2807,12 @@
         <v>19</v>
       </c>
       <c r="H7" s="1"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
     </row>
     <row r="8" ht="16.5" spans="1:11">
-      <c r="A8" s="5"/>
+      <c r="A8" s="3"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1">
         <v>1403</v>
@@ -2847,12 +2830,12 @@
         <v>21</v>
       </c>
       <c r="H8" s="1"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
     </row>
     <row r="9" ht="16.5" spans="1:11">
-      <c r="A9" s="5"/>
+      <c r="A9" s="3"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -2860,12 +2843,12 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
     </row>
     <row r="10" ht="16.5" spans="1:11">
-      <c r="A10" s="5"/>
+      <c r="A10" s="3"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -2873,12 +2856,12 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
     </row>
     <row r="11" ht="16.5" spans="1:11">
-      <c r="A11" s="5"/>
+      <c r="A11" s="3"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -2886,22 +2869,22 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2912,15 +2895,15 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="7"/>
   <cols>
-    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="6" max="6" width="29.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" spans="1:8">
@@ -2942,7 +2925,7 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>58</v>
       </c>
       <c r="H2" s="1"/>
@@ -2950,68 +2933,68 @@
     <row r="3" ht="16.5" spans="1:8">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3" t="s">
+      <c r="G3" s="2"/>
+      <c r="H3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:8">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" ht="16.5" spans="1:8">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" s="5" customFormat="1" ht="16.5" spans="3:7">
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" s="3" customFormat="1" ht="16.5" spans="3:7">
       <c r="C6" s="1">
         <v>1501</v>
       </c>
@@ -3021,13 +3004,13 @@
       <c r="E6" s="1">
         <v>1</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="1" t="s">
         <v>59</v>
       </c>
       <c r="G6" s="1"/>
     </row>
     <row r="7" ht="16.5" spans="1:8">
-      <c r="A7" s="5"/>
+      <c r="A7" s="3"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1">
         <v>1502</v>
@@ -3038,11 +3021,29 @@
       <c r="E7" s="1">
         <v>2</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>20</v>
+      <c r="F7" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
+    </row>
+    <row r="8" ht="16.5" spans="1:8">
+      <c r="A8" s="3"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1">
+        <v>1503</v>
+      </c>
+      <c r="D8" s="1">
+        <v>15</v>
+      </c>
+      <c r="E8" s="1">
+        <v>3</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3083,7 +3084,7 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>60</v>
       </c>
       <c r="H2" s="1"/>
@@ -3091,70 +3092,70 @@
     <row r="3" ht="16.5" spans="1:8">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3" t="s">
+      <c r="G3" s="2"/>
+      <c r="H3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:8">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" ht="16.5" spans="1:8">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="3" t="s">
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" ht="16.5" spans="1:8">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
       <c r="C6" s="1">
         <v>1601</v>
       </c>
@@ -3164,14 +3165,14 @@
       <c r="E6" s="1">
         <v>1</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="1" t="s">
         <v>61</v>
       </c>
       <c r="G6" s="1"/>
-      <c r="H6" s="5"/>
+      <c r="H6" s="3"/>
     </row>
     <row r="7" ht="16.5" spans="1:8">
-      <c r="A7" s="5"/>
+      <c r="A7" s="3"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1">
         <v>1602</v>
@@ -3182,7 +3183,7 @@
       <c r="E7" s="1">
         <v>2</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G7" s="1"/>
@@ -3205,14 +3206,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="2" width="9" style="5"/>
-    <col min="3" max="3" width="9.625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="11.625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="15.875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="23.875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="17.25" style="5" customWidth="1"/>
-    <col min="8" max="8" width="14.375" style="5" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="5"/>
+    <col min="1" max="2" width="9" style="3"/>
+    <col min="3" max="3" width="9.625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="15.875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="23.875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="17.25" style="3" customWidth="1"/>
+    <col min="8" max="8" width="14.375" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" spans="1:8">
@@ -3242,64 +3243,64 @@
     <row r="3" ht="16.5" spans="1:8">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3" t="s">
+      <c r="G3" s="2"/>
+      <c r="H3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:8">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" ht="16.5" spans="1:8">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="3" t="s">
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3322,36 +3323,36 @@
       </c>
     </row>
     <row r="7" spans="3:7">
-      <c r="C7" s="5">
+      <c r="C7" s="3">
         <v>202</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="3">
         <v>2</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="3">
         <v>2</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="3:7">
-      <c r="C8" s="5">
+      <c r="C8" s="3">
         <v>203</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="3">
         <v>2</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="3">
         <v>3</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="3" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3383,65 +3384,65 @@
       </c>
     </row>
     <row r="3" ht="15" spans="3:9">
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3" t="s">
+      <c r="G3" s="2"/>
+      <c r="H3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="5"/>
+      <c r="I3" s="3"/>
     </row>
     <row r="4" ht="15" spans="3:9">
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="5"/>
+      <c r="I4" s="3"/>
     </row>
     <row r="5" ht="15" spans="3:9">
-      <c r="C5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="5"/>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="3"/>
     </row>
     <row r="6" ht="16.5" spans="3:9">
       <c r="C6" s="1">
@@ -3459,17 +3460,17 @@
       <c r="G6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
     </row>
     <row r="7" spans="3:9">
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3503,65 +3504,65 @@
       </c>
     </row>
     <row r="3" ht="15" spans="3:9">
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3" t="s">
+      <c r="G3" s="2"/>
+      <c r="H3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="5"/>
+      <c r="I3" s="3"/>
     </row>
     <row r="4" ht="15" spans="3:9">
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="5"/>
+      <c r="I4" s="3"/>
     </row>
     <row r="5" ht="15" spans="3:9">
-      <c r="C5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="5"/>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="3"/>
     </row>
     <row r="6" ht="16.5" spans="3:9">
       <c r="C6" s="1">
@@ -3579,17 +3580,17 @@
       <c r="G6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
     </row>
     <row r="7" spans="3:9">
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3619,60 +3620,60 @@
       </c>
     </row>
     <row r="3" ht="15" spans="3:8">
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3" t="s">
+      <c r="G3" s="2"/>
+      <c r="H3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" ht="15" spans="3:8">
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" ht="15" spans="3:8">
-      <c r="C5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="3" t="s">
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3692,15 +3693,15 @@
       <c r="G6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="5"/>
+      <c r="H6" s="3"/>
     </row>
     <row r="7" spans="3:8">
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3720,13 +3721,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="9" style="7"/>
-    <col min="4" max="4" width="17" style="7" customWidth="1"/>
-    <col min="5" max="5" width="9" style="7"/>
-    <col min="6" max="6" width="20.875" style="7" customWidth="1"/>
-    <col min="7" max="7" width="19.25" style="7" customWidth="1"/>
-    <col min="8" max="8" width="30.125" style="7" customWidth="1"/>
-    <col min="9" max="10" width="9" style="7"/>
+    <col min="3" max="3" width="9" style="5"/>
+    <col min="4" max="4" width="17" style="5" customWidth="1"/>
+    <col min="5" max="5" width="9" style="5"/>
+    <col min="6" max="6" width="20.875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="19.25" style="5" customWidth="1"/>
+    <col min="8" max="8" width="30.125" style="5" customWidth="1"/>
+    <col min="9" max="10" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" spans="1:9">
@@ -3734,200 +3735,200 @@
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="4"/>
     </row>
     <row r="2" ht="16.5" spans="1:9">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="4"/>
     </row>
     <row r="3" ht="16.5" spans="1:9">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9" t="s">
+      <c r="G3" s="7"/>
+      <c r="H3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="6"/>
+      <c r="I3" s="4"/>
     </row>
     <row r="4" ht="16.5" spans="1:9">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="6"/>
+      <c r="I4" s="4"/>
     </row>
     <row r="5" ht="16.5" spans="1:9">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="6"/>
+      <c r="C5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="4"/>
     </row>
     <row r="6" ht="16.5" spans="1:9">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="8">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="6">
         <v>601</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="6">
         <v>6</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="6">
         <v>1</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
     </row>
     <row r="7" ht="16.5" spans="1:9">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="8">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="6">
         <v>602</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="6">
         <v>6</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="6">
         <v>2</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
     </row>
     <row r="8" ht="16.5" spans="1:9">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="8">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="6">
         <v>603</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="6">
         <v>6</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="6">
         <v>3</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
     </row>
     <row r="9" ht="16.5" spans="1:9">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="8">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="6">
         <v>604</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="6">
         <v>6</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="6">
         <v>4</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
     </row>
     <row r="10" ht="16.5" spans="1:9">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="8">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="6">
         <v>605</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="6">
         <v>6</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="6">
         <v>5</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="4">
         <v>1</v>
       </c>
-      <c r="I10" s="6"/>
+      <c r="I10" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3957,60 +3958,60 @@
       </c>
     </row>
     <row r="3" ht="15" spans="3:8">
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3" t="s">
+      <c r="G3" s="2"/>
+      <c r="H3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" ht="15" spans="3:8">
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" ht="15" spans="3:8">
-      <c r="C5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="3" t="s">
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4030,15 +4031,15 @@
       <c r="G6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H6" s="5"/>
+      <c r="H6" s="3"/>
     </row>
     <row r="7" spans="3:8">
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4069,66 +4070,66 @@
       </c>
     </row>
     <row r="3" ht="15" spans="3:8">
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3" t="s">
+      <c r="G3" s="2"/>
+      <c r="H3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" ht="15" spans="3:8">
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" ht="15" spans="3:8">
-      <c r="C5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="3" t="s">
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" ht="16.5" spans="1:8">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
       <c r="C6" s="1">
         <f>D6*100+E6</f>
         <v>801</v>
@@ -4145,137 +4146,137 @@
       <c r="G6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="5"/>
+      <c r="H6" s="3"/>
     </row>
     <row r="7" ht="16.5" spans="1:8">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3">
         <v>802</v>
       </c>
       <c r="D7" s="1">
         <v>8</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="3">
         <v>2</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="5"/>
+      <c r="H7" s="3"/>
     </row>
     <row r="8" ht="16.5" spans="1:8">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3">
         <v>803</v>
       </c>
       <c r="D8" s="1">
         <v>8</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="3">
         <v>3</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="5"/>
+      <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4324,70 +4325,70 @@
     <row r="3" ht="16.5" spans="1:8">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3" t="s">
+      <c r="G3" s="2"/>
+      <c r="H3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:8">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" ht="16.5" spans="1:8">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="3" t="s">
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" ht="16.5" spans="1:8">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
       <c r="C6" s="1">
         <v>901</v>
       </c>
@@ -4403,11 +4404,11 @@
       <c r="G6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H6" s="5"/>
+      <c r="H6" s="3"/>
     </row>
     <row r="7" ht="16.5" spans="1:10">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
       <c r="C7" s="1">
         <v>902</v>
       </c>
@@ -4423,11 +4424,11 @@
       <c r="G7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="4">
         <v>1</v>
       </c>
-      <c r="I7" s="6"/>
-      <c r="J7" s="7"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Unity/Assets/Config/Excel/AIConfig.xlsx
+++ b/Unity/Assets/Config/Excel/AIConfig.xlsx
@@ -22,7 +22,6 @@
     <sheet name="AIConfig_13" sheetId="18" r:id="rId13"/>
     <sheet name="AIConfig_14" sheetId="19" r:id="rId14"/>
     <sheet name="AIConfig_15" sheetId="20" r:id="rId15"/>
-    <sheet name="AIConfig_16" sheetId="21" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="59">
   <si>
     <t>cs</t>
   </si>
@@ -218,16 +217,7 @@
     <t>TuoGuan_Attack</t>
   </si>
   <si>
-    <t>#宠物放置战斗_宠物</t>
-  </si>
-  <si>
-    <t>AI_PetMelee_PetTarget</t>
-  </si>
-  <si>
-    <t>#宠物放置战斗_怪物</t>
-  </si>
-  <si>
-    <t>AI_PetMelee_MonsterTarget</t>
+    <t>#宠物放置战斗</t>
   </si>
 </sst>
 </file>
@@ -1204,7 +1194,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="$A6:$XFD6"/>
+      <selection activeCell="A8" sqref="$A8:$XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2898,12 +2888,13 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="7"/>
   <cols>
-    <col min="6" max="6" width="29.875" customWidth="1"/>
+    <col min="6" max="6" width="18.5" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" spans="1:8">
@@ -2994,7 +2985,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" s="3" customFormat="1" ht="16.5" spans="3:7">
+    <row r="6" customFormat="1" ht="16.5" spans="1:8">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
       <c r="C6" s="1">
         <v>1501</v>
       </c>
@@ -3005,9 +2998,10 @@
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="G6" s="1"/>
+      <c r="H6" s="3"/>
     </row>
     <row r="7" ht="16.5" spans="1:8">
       <c r="A7" s="3"/>
@@ -3044,150 +3038,6 @@
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:H7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="7"/>
-  <cols>
-    <col min="6" max="6" width="12.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="16.5" spans="1:8">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" ht="16.5" spans="1:8">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" ht="16.5" spans="1:8">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" ht="16.5" spans="1:8">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" ht="16.5" spans="1:8">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" ht="16.5" spans="1:8">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="1">
-        <v>1601</v>
-      </c>
-      <c r="D6" s="1">
-        <v>16</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="3"/>
-    </row>
-    <row r="7" ht="16.5" spans="1:8">
-      <c r="A7" s="3"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1">
-        <v>1602</v>
-      </c>
-      <c r="D7" s="1">
-        <v>16</v>
-      </c>
-      <c r="E7" s="1">
-        <v>2</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3716,7 +3566,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/Unity/Assets/Config/Excel/AIConfig.xlsx
+++ b/Unity/Assets/Config/Excel/AIConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12795" tabRatio="809" firstSheet="3" activeTab="14"/>
+    <workbookView windowWidth="27945" windowHeight="12375" tabRatio="809" firstSheet="3" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="AIConfig_1" sheetId="6" r:id="rId1"/>
@@ -20,8 +20,7 @@
     <sheet name="AIConfig_11" sheetId="16" r:id="rId11"/>
     <sheet name="AIConfig_12" sheetId="17" r:id="rId12"/>
     <sheet name="AIConfig_13" sheetId="18" r:id="rId13"/>
-    <sheet name="AIConfig_14" sheetId="19" r:id="rId14"/>
-    <sheet name="AIConfig_15" sheetId="20" r:id="rId15"/>
+    <sheet name="AIConfig_15" sheetId="20" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="55">
   <si>
     <t>cs</t>
   </si>
@@ -203,18 +202,6 @@
   </si>
   <si>
     <t>AI_Turtle</t>
-  </si>
-  <si>
-    <t>#玩家托管</t>
-  </si>
-  <si>
-    <t>TuoGuan_Follow</t>
-  </si>
-  <si>
-    <t>TuoGuan_ZhuiJi</t>
-  </si>
-  <si>
-    <t>TuoGuan_Attack</t>
   </si>
   <si>
     <t>#宠物放置战斗</t>
@@ -2651,244 +2638,10 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="6" max="6" width="25.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="16.5" spans="1:9">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="3"/>
-    </row>
-    <row r="2" ht="16.5" spans="1:9">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" ht="16.5" spans="1:9">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="3"/>
-    </row>
-    <row r="4" ht="16.5" spans="1:9">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" ht="16.5" spans="1:9">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" ht="16.5" spans="1:11">
-      <c r="A6" s="3"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1">
-        <v>1401</v>
-      </c>
-      <c r="D6" s="1">
-        <v>14</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-    </row>
-    <row r="7" ht="16.5" spans="1:11">
-      <c r="A7" s="3"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1">
-        <v>1402</v>
-      </c>
-      <c r="D7" s="1">
-        <v>14</v>
-      </c>
-      <c r="E7" s="1">
-        <v>2</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-    </row>
-    <row r="8" ht="16.5" spans="1:11">
-      <c r="A8" s="3"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1">
-        <v>1403</v>
-      </c>
-      <c r="D8" s="1">
-        <v>14</v>
-      </c>
-      <c r="E8" s="1">
-        <v>3</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" ht="16.5" spans="1:11">
-      <c r="A9" s="3"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" ht="16.5" spans="1:11">
-      <c r="A10" s="3"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" ht="16.5" spans="1:11">
-      <c r="A11" s="3"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="7"/>
@@ -2917,7 +2670,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H2" s="1"/>
     </row>

--- a/Unity/Assets/Config/Excel/AIConfig.xlsx
+++ b/Unity/Assets/Config/Excel/AIConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" tabRatio="809" firstSheet="3" activeTab="13"/>
+    <workbookView windowWidth="27945" windowHeight="12375" tabRatio="809" firstSheet="3" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="AIConfig_1" sheetId="6" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="AIConfig_12" sheetId="17" r:id="rId12"/>
     <sheet name="AIConfig_13" sheetId="18" r:id="rId13"/>
     <sheet name="AIConfig_15" sheetId="20" r:id="rId14"/>
+    <sheet name="AIConfig_16" sheetId="21" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="58">
   <si>
     <t>cs</t>
   </si>
@@ -205,6 +206,15 @@
   </si>
   <si>
     <t>#宠物放置战斗</t>
+  </si>
+  <si>
+    <t>#乱斗宠物</t>
+  </si>
+  <si>
+    <t>AI_Priority</t>
+  </si>
+  <si>
+    <t>UnitType==3/0 优先怪</t>
   </si>
 </sst>
 </file>
@@ -1667,7 +1677,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N19" sqref="A1:N19"/>
+      <selection activeCell="L20" sqref="A1:L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2640,8 +2650,8 @@
   <sheetPr/>
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O35" sqref="O35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="7"/>
@@ -2794,6 +2804,307 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="5" max="5" width="11.25" customWidth="1"/>
+    <col min="6" max="6" width="31.875" customWidth="1"/>
+    <col min="7" max="7" width="15.75" customWidth="1"/>
+    <col min="9" max="9" width="28.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="16.5" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+    </row>
+    <row r="2" ht="16.5" spans="1:11">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" ht="16.5" spans="1:11">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+    </row>
+    <row r="4" ht="16.5" spans="1:11">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" ht="16.5" spans="1:11">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+    </row>
+    <row r="6" ht="16.5" spans="1:11">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="1">
+        <v>1601</v>
+      </c>
+      <c r="D6" s="1">
+        <v>16</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="3">
+        <v>3</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+    </row>
+    <row r="7" ht="16.5" spans="1:11">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="1">
+        <v>1602</v>
+      </c>
+      <c r="D7" s="1">
+        <v>16</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>

--- a/Unity/Assets/Config/Excel/AIConfig.xlsx
+++ b/Unity/Assets/Config/Excel/AIConfig.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="58">
   <si>
     <t>cs</t>
   </si>
@@ -2651,7 +2651,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O35" sqref="O35"/>
+      <selection activeCell="C6" sqref="C6:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="7"/>
@@ -2811,10 +2811,10 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2928,9 +2928,7 @@
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
     </row>
-    <row r="6" ht="16.5" spans="1:11">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
+    <row r="6" ht="16.5" spans="3:6">
       <c r="C6" s="1">
         <v>1601</v>
       </c>
@@ -2941,17 +2939,8 @@
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="3">
-        <v>3</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
+        <v>34</v>
+      </c>
     </row>
     <row r="7" ht="16.5" spans="1:11">
       <c r="A7" s="3"/>
@@ -2966,33 +2955,54 @@
         <v>2</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
+        <v>56</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="3">
+        <v>3</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" ht="16.5" spans="1:11">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="C8" s="1">
+        <v>1603</v>
+      </c>
+      <c r="D8" s="1">
+        <v>16</v>
+      </c>
+      <c r="E8" s="1">
+        <v>3</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="1"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" ht="16.5" spans="1:11">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+      <c r="C9" s="1">
+        <v>1604</v>
+      </c>
+      <c r="D9" s="1">
+        <v>16</v>
+      </c>
+      <c r="E9" s="1">
+        <v>4</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -3005,7 +3015,6 @@
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -3038,39 +3047,39 @@
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" ht="16.5" spans="1:11">
       <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" ht="16.5" spans="1:11">
       <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" ht="16.5" spans="1:11">
       <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
@@ -3079,11 +3088,11 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
@@ -3092,16 +3101,42 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Unity/Assets/Config/Excel/AIConfig.xlsx
+++ b/Unity/Assets/Config/Excel/AIConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" tabRatio="809" firstSheet="3" activeTab="14"/>
+    <workbookView windowWidth="27945" windowHeight="12375" tabRatio="809" firstSheet="3" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="AIConfig_1" sheetId="6" r:id="rId1"/>
@@ -20,8 +20,7 @@
     <sheet name="AIConfig_11" sheetId="16" r:id="rId11"/>
     <sheet name="AIConfig_12" sheetId="17" r:id="rId12"/>
     <sheet name="AIConfig_13" sheetId="18" r:id="rId13"/>
-    <sheet name="AIConfig_15" sheetId="20" r:id="rId14"/>
-    <sheet name="AIConfig_16" sheetId="21" r:id="rId15"/>
+    <sheet name="AIConfig_16" sheetId="21" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="57">
   <si>
     <t>cs</t>
   </si>
@@ -203,9 +202,6 @@
   </si>
   <si>
     <t>AI_Turtle</t>
-  </si>
-  <si>
-    <t>#宠物放置战斗</t>
   </si>
   <si>
     <t>#乱斗宠物</t>
@@ -2648,173 +2644,10 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:G10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="7"/>
-  <cols>
-    <col min="6" max="6" width="18.5" customWidth="1"/>
-    <col min="7" max="7" width="14" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="16.5" spans="1:8">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" ht="16.5" spans="1:8">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" ht="16.5" spans="1:8">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" ht="16.5" spans="1:8">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" ht="16.5" spans="1:8">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" customFormat="1" ht="16.5" spans="1:8">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="1">
-        <v>1501</v>
-      </c>
-      <c r="D6" s="1">
-        <v>15</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="3"/>
-    </row>
-    <row r="7" ht="16.5" spans="1:8">
-      <c r="A7" s="3"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1">
-        <v>1502</v>
-      </c>
-      <c r="D7" s="1">
-        <v>15</v>
-      </c>
-      <c r="E7" s="1">
-        <v>2</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" ht="16.5" spans="1:8">
-      <c r="A8" s="3"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1">
-        <v>1503</v>
-      </c>
-      <c r="D8" s="1">
-        <v>15</v>
-      </c>
-      <c r="E8" s="1">
-        <v>3</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2848,7 +2681,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="3"/>
@@ -2955,14 +2788,14 @@
         <v>2</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="3">
         <v>3</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>

--- a/Unity/Assets/Config/Excel/AIConfig.xlsx
+++ b/Unity/Assets/Config/Excel/AIConfig.xlsx
@@ -20,7 +20,8 @@
     <sheet name="AIConfig_11" sheetId="16" r:id="rId11"/>
     <sheet name="AIConfig_12" sheetId="17" r:id="rId12"/>
     <sheet name="AIConfig_13" sheetId="18" r:id="rId13"/>
-    <sheet name="AIConfig_16" sheetId="21" r:id="rId14"/>
+    <sheet name="AIConfig_14" sheetId="22" r:id="rId14"/>
+    <sheet name="AIConfig_16" sheetId="21" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="59">
   <si>
     <t>cs</t>
   </si>
@@ -202,6 +203,12 @@
   </si>
   <si>
     <t>AI_Turtle</t>
+  </si>
+  <si>
+    <t>#思维控制</t>
+  </si>
+  <si>
+    <t>AI_Follow2</t>
   </si>
   <si>
     <t>#乱斗宠物</t>
@@ -2644,9 +2651,335 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:L17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="6" max="6" width="22.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="16.5" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+    </row>
+    <row r="2" ht="16.5" spans="1:12">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+    </row>
+    <row r="3" ht="16.5" spans="1:12">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" ht="16.5" spans="1:12">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+    </row>
+    <row r="5" ht="16.5" spans="1:12">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+    </row>
+    <row r="6" ht="16.5" spans="1:12">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3">
+        <v>1401</v>
+      </c>
+      <c r="D6" s="1">
+        <v>14</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3">
+        <v>1402</v>
+      </c>
+      <c r="D7" s="3">
+        <v>14</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3">
+        <v>1403</v>
+      </c>
+      <c r="D8" s="3">
+        <v>14</v>
+      </c>
+      <c r="E8" s="3">
+        <v>3</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
@@ -2681,7 +3014,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="3"/>
@@ -2788,14 +3121,14 @@
         <v>2</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="3">
         <v>3</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
@@ -2983,7 +3316,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="L17" sqref="A1:L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="7"/>
@@ -3836,7 +4169,7 @@
   <dimension ref="A2:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>

--- a/Unity/Assets/Config/Excel/AIConfig.xlsx
+++ b/Unity/Assets/Config/Excel/AIConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" tabRatio="809" firstSheet="3" activeTab="13"/>
+    <workbookView windowWidth="27945" windowHeight="12375" tabRatio="809" firstSheet="2" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="AIConfig_1" sheetId="6" r:id="rId1"/>
@@ -21,7 +21,8 @@
     <sheet name="AIConfig_12" sheetId="17" r:id="rId12"/>
     <sheet name="AIConfig_13" sheetId="18" r:id="rId13"/>
     <sheet name="AIConfig_14" sheetId="22" r:id="rId14"/>
-    <sheet name="AIConfig_16" sheetId="21" r:id="rId15"/>
+    <sheet name="AIConfig_15" sheetId="23" r:id="rId15"/>
+    <sheet name="AIConfig_16" sheetId="21" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="60">
   <si>
     <t>cs</t>
   </si>
@@ -209,6 +210,9 @@
   </si>
   <si>
     <t>AI_Follow2</t>
+  </si>
+  <si>
+    <t>#乱斗小妖</t>
   </si>
   <si>
     <t>#乱斗宠物</t>
@@ -859,16 +863,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1194,7 +1198,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="$A8:$XFD8"/>
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2653,7 +2657,7 @@
   <sheetPr/>
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -2977,10 +2981,273 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:I18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" ht="16.5" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="6"/>
+    </row>
+    <row r="2" ht="16.5" spans="1:9">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" s="4"/>
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" ht="16.5" spans="1:9">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="6"/>
+    </row>
+    <row r="4" ht="16.5" spans="1:9">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" ht="16.5" spans="1:9">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" ht="16.5" spans="1:9">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="4">
+        <v>1501</v>
+      </c>
+      <c r="D6" s="4">
+        <v>15</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" ht="16.5" spans="1:9">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="4">
+        <v>1503</v>
+      </c>
+      <c r="D7" s="4">
+        <v>15</v>
+      </c>
+      <c r="E7" s="4">
+        <v>2</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" ht="16.5" spans="1:9">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="4">
+        <v>1504</v>
+      </c>
+      <c r="D8" s="4">
+        <v>15</v>
+      </c>
+      <c r="E8" s="4">
+        <v>3</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+    </row>
+    <row r="9" spans="3:9">
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+    </row>
+    <row r="10" spans="3:9">
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+    </row>
+    <row r="11" spans="3:9">
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+    </row>
+    <row r="12" spans="3:9">
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+    </row>
+    <row r="13" spans="3:9">
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+    </row>
+    <row r="14" spans="3:9">
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+    </row>
+    <row r="15" spans="3:9">
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+    </row>
+    <row r="16" spans="3:9">
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+    </row>
+    <row r="17" spans="3:9">
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+    </row>
+    <row r="18" spans="3:9">
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3014,7 +3281,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="3"/>
@@ -3121,14 +3388,14 @@
         <v>2</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="3">
         <v>3</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
@@ -3831,18 +4098,18 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="I20" sqref="A1:I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="9" style="5"/>
-    <col min="4" max="4" width="17" style="5" customWidth="1"/>
-    <col min="5" max="5" width="9" style="5"/>
-    <col min="6" max="6" width="20.875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="19.25" style="5" customWidth="1"/>
-    <col min="8" max="8" width="30.125" style="5" customWidth="1"/>
-    <col min="9" max="10" width="9" style="5"/>
+    <col min="3" max="3" width="9" style="7"/>
+    <col min="4" max="4" width="17" style="7" customWidth="1"/>
+    <col min="5" max="5" width="9" style="7"/>
+    <col min="6" max="6" width="20.875" style="7" customWidth="1"/>
+    <col min="7" max="7" width="19.25" style="7" customWidth="1"/>
+    <col min="8" max="8" width="30.125" style="7" customWidth="1"/>
+    <col min="9" max="10" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" spans="1:9">
@@ -3850,200 +4117,200 @@
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="6"/>
     </row>
     <row r="2" ht="16.5" spans="1:9">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="6"/>
     </row>
     <row r="3" ht="16.5" spans="1:9">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7" t="s">
+      <c r="G3" s="5"/>
+      <c r="H3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="4"/>
+      <c r="I3" s="6"/>
     </row>
     <row r="4" ht="16.5" spans="1:9">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="4"/>
+      <c r="I4" s="6"/>
     </row>
     <row r="5" ht="16.5" spans="1:9">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="7" t="s">
+      <c r="C5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="4"/>
+      <c r="I5" s="6"/>
     </row>
     <row r="6" ht="16.5" spans="1:9">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
-      <c r="C6" s="6">
+      <c r="C6" s="4">
         <v>601</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="4">
         <v>6</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="4">
         <v>1</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
     </row>
     <row r="7" ht="16.5" spans="1:9">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
-      <c r="C7" s="6">
+      <c r="C7" s="4">
         <v>602</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="4">
         <v>6</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="4">
         <v>2</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
     </row>
     <row r="8" ht="16.5" spans="1:9">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="6">
+      <c r="C8" s="4">
         <v>603</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="4">
         <v>6</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="4">
         <v>3</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
     </row>
     <row r="9" ht="16.5" spans="1:9">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
-      <c r="C9" s="6">
+      <c r="C9" s="4">
         <v>604</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="4">
         <v>6</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="4">
         <v>4</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" ht="16.5" spans="1:9">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
-      <c r="C10" s="6">
+      <c r="C10" s="4">
         <v>605</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="4">
         <v>6</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="4">
         <v>5</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="6">
         <v>1</v>
       </c>
-      <c r="I10" s="4"/>
+      <c r="I10" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4539,11 +4806,11 @@
       <c r="G7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="6">
         <v>1</v>
       </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="5"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Unity/Assets/Config/Excel/AIConfig.xlsx
+++ b/Unity/Assets/Config/Excel/AIConfig.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="62">
   <si>
     <t>cs</t>
   </si>
@@ -215,10 +215,16 @@
     <t>#乱斗小妖</t>
   </si>
   <si>
+    <t>AI_Priority</t>
+  </si>
+  <si>
+    <t>6;1;0</t>
+  </si>
+  <si>
     <t>#乱斗宠物</t>
   </si>
   <si>
-    <t>AI_Priority</t>
+    <t>3;1;0</t>
   </si>
   <si>
     <t>UnitType==3/0 优先怪</t>
@@ -2981,13 +2987,16 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="6" max="6" width="13.25" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" ht="16.5" spans="1:9">
       <c r="A1" s="1" t="s">
@@ -3103,11 +3112,11 @@
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" ht="16.5" spans="1:9">
+    <row r="7" ht="16.5" spans="1:11">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="4">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="D7" s="4">
         <v>15</v>
@@ -3116,19 +3125,21 @@
         <v>2</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
+        <v>57</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
     </row>
     <row r="8" ht="16.5" spans="1:9">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="4">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="D8" s="4">
         <v>15</v>
@@ -3137,22 +3148,34 @@
         <v>3</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="3:9">
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
+    <row r="9" ht="16.5" spans="1:9">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="4">
+        <v>1504</v>
+      </c>
+      <c r="D9" s="4">
+        <v>15</v>
+      </c>
+      <c r="E9" s="4">
+        <v>4</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" spans="3:9">
       <c r="C10" s="7"/>
@@ -3234,6 +3257,15 @@
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
+    </row>
+    <row r="19" spans="3:9">
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3247,7 +3279,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3281,7 +3313,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="3"/>
@@ -3388,14 +3420,14 @@
         <v>2</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G7" s="1"/>
-      <c r="H7" s="3">
-        <v>3</v>
+      <c r="H7" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>

--- a/Unity/Assets/Config/Excel/AIConfig.xlsx
+++ b/Unity/Assets/Config/Excel/AIConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" tabRatio="809" firstSheet="2" activeTab="14"/>
+    <workbookView windowWidth="27945" windowHeight="12375" tabRatio="809" firstSheet="2" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="AIConfig_1" sheetId="6" r:id="rId1"/>
@@ -224,7 +224,7 @@
     <t>#乱斗宠物</t>
   </si>
   <si>
-    <t>3;1;0</t>
+    <t>3;1;0&amp;6;1;0</t>
   </si>
   <si>
     <t>UnitType==3/0 优先怪</t>
@@ -2989,13 +2989,14 @@
   <sheetPr/>
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="6" max="6" width="13.25" customWidth="1"/>
+    <col min="8" max="8" width="34.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" spans="1:9">
@@ -3278,8 +3279,8 @@
   <sheetPr/>
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3287,6 +3288,7 @@
     <col min="5" max="5" width="11.25" customWidth="1"/>
     <col min="6" max="6" width="31.875" customWidth="1"/>
     <col min="7" max="7" width="15.75" customWidth="1"/>
+    <col min="8" max="8" width="47.5" customWidth="1"/>
     <col min="9" max="9" width="28.75" customWidth="1"/>
   </cols>
   <sheetData>
